--- a/database/seeders/enderecos/xlsx/cidades/seed_cidades_pr.xlsx
+++ b/database/seeders/enderecos/xlsx/cidades/seed_cidades_pr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Ambiente de Trabalho\estagio\planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielmaia/Documents/Dev/sysgcm/database/seeders/enderecos/xlsx/cidades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46DE83F-BD51-4728-A3AA-21F329723562}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2234FC2-8CED-FC48-B4A9-9F85866EE531}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -2399,16 +2399,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -2432,9 +2426,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2740,20 +2733,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:D405"/>
+  <dimension ref="A1:D400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="B405" sqref="B405"/>
+    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
+      <selection activeCell="A401" sqref="A401:E421"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>787</v>
       </c>
@@ -2767,7 +2760,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4100103</v>
       </c>
@@ -2778,7 +2771,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4100202</v>
       </c>
@@ -2789,7 +2782,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4100301</v>
       </c>
@@ -2800,7 +2793,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4100400</v>
       </c>
@@ -2811,7 +2804,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4100459</v>
       </c>
@@ -2822,7 +2815,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4100509</v>
       </c>
@@ -2833,7 +2826,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4100608</v>
       </c>
@@ -2844,7 +2837,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4100707</v>
       </c>
@@ -2855,7 +2848,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4100806</v>
       </c>
@@ -2866,7 +2859,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4100905</v>
       </c>
@@ -2877,7 +2870,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4101002</v>
       </c>
@@ -2888,7 +2881,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>4101051</v>
       </c>
@@ -2899,7 +2892,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4101101</v>
       </c>
@@ -2910,7 +2903,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>4101150</v>
       </c>
@@ -2921,7 +2914,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4101200</v>
       </c>
@@ -2932,7 +2925,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4101309</v>
       </c>
@@ -2943,7 +2936,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4101408</v>
       </c>
@@ -2954,7 +2947,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4101507</v>
       </c>
@@ -2965,7 +2958,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4101606</v>
       </c>
@@ -2976,7 +2969,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4101655</v>
       </c>
@@ -2987,7 +2980,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4101705</v>
       </c>
@@ -2998,7 +2991,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4101804</v>
       </c>
@@ -3009,7 +3002,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4101853</v>
       </c>
@@ -3020,7 +3013,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4101903</v>
       </c>
@@ -3031,7 +3024,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4102000</v>
       </c>
@@ -3042,7 +3035,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4102109</v>
       </c>
@@ -3053,7 +3046,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4102208</v>
       </c>
@@ -3064,7 +3057,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4102307</v>
       </c>
@@ -3075,7 +3068,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4102406</v>
       </c>
@@ -3086,7 +3079,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4102505</v>
       </c>
@@ -3097,7 +3090,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4102604</v>
       </c>
@@ -3108,7 +3101,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4102703</v>
       </c>
@@ -3119,7 +3112,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>4102752</v>
       </c>
@@ -3130,7 +3123,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4102802</v>
       </c>
@@ -3141,7 +3134,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4102901</v>
       </c>
@@ -3152,7 +3145,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4103008</v>
       </c>
@@ -3163,7 +3156,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>4103024</v>
       </c>
@@ -3174,7 +3167,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>4103040</v>
       </c>
@@ -3185,7 +3178,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4103057</v>
       </c>
@@ -3196,7 +3189,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>4103107</v>
       </c>
@@ -3207,7 +3200,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>4103156</v>
       </c>
@@ -3218,7 +3211,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>4103206</v>
       </c>
@@ -3229,7 +3222,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>4103222</v>
       </c>
@@ -3240,7 +3233,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4103305</v>
       </c>
@@ -3251,7 +3244,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>4103354</v>
       </c>
@@ -3262,7 +3255,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4103370</v>
       </c>
@@ -3273,7 +3266,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>4103404</v>
       </c>
@@ -3284,7 +3277,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>4103453</v>
       </c>
@@ -3295,7 +3288,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>4103479</v>
       </c>
@@ -3306,7 +3299,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>4103503</v>
       </c>
@@ -3317,7 +3310,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>4103602</v>
       </c>
@@ -3328,7 +3321,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>4103701</v>
       </c>
@@ -3339,7 +3332,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>4103800</v>
       </c>
@@ -3350,7 +3343,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>4103909</v>
       </c>
@@ -3361,7 +3354,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>4103958</v>
       </c>
@@ -3372,7 +3365,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>4104006</v>
       </c>
@@ -3383,7 +3376,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>4104055</v>
       </c>
@@ -3394,7 +3387,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>4104105</v>
       </c>
@@ -3405,7 +3398,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>4104204</v>
       </c>
@@ -3416,7 +3409,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>4104253</v>
       </c>
@@ -3427,7 +3420,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>4104303</v>
       </c>
@@ -3438,7 +3431,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>4104402</v>
       </c>
@@ -3449,7 +3442,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>4104428</v>
       </c>
@@ -3460,7 +3453,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>4104451</v>
       </c>
@@ -3471,7 +3464,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>4104501</v>
       </c>
@@ -3482,7 +3475,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>4104600</v>
       </c>
@@ -3493,7 +3486,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>4104659</v>
       </c>
@@ -3504,7 +3497,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>4104709</v>
       </c>
@@ -3515,7 +3508,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>4104808</v>
       </c>
@@ -3526,7 +3519,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>4104907</v>
       </c>
@@ -3537,7 +3530,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>4105003</v>
       </c>
@@ -3548,7 +3541,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>4105102</v>
       </c>
@@ -3559,7 +3552,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>4105201</v>
       </c>
@@ -3570,7 +3563,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>4105300</v>
       </c>
@@ -3581,7 +3574,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>4105409</v>
       </c>
@@ -3592,7 +3585,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>4105508</v>
       </c>
@@ -3603,7 +3596,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>4105607</v>
       </c>
@@ -3614,7 +3607,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>4105706</v>
       </c>
@@ -3625,7 +3618,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>4105805</v>
       </c>
@@ -3636,7 +3629,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>4105904</v>
       </c>
@@ -3647,7 +3640,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>4106001</v>
       </c>
@@ -3658,7 +3651,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>4106100</v>
       </c>
@@ -3669,7 +3662,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>4106209</v>
       </c>
@@ -3680,7 +3673,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>4106308</v>
       </c>
@@ -3691,7 +3684,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>4106407</v>
       </c>
@@ -3702,7 +3695,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>4106456</v>
       </c>
@@ -3713,7 +3706,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>4106506</v>
       </c>
@@ -3724,7 +3717,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>4106555</v>
       </c>
@@ -3735,7 +3728,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>4106571</v>
       </c>
@@ -3746,7 +3739,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>4106605</v>
       </c>
@@ -3757,7 +3750,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>4106704</v>
       </c>
@@ -3768,7 +3761,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>4106803</v>
       </c>
@@ -3779,7 +3772,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>4106852</v>
       </c>
@@ -3790,7 +3783,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>4106902</v>
       </c>
@@ -3801,7 +3794,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>4107009</v>
       </c>
@@ -3812,7 +3805,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>4107108</v>
       </c>
@@ -3823,7 +3816,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>4107124</v>
       </c>
@@ -3834,7 +3827,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>4107157</v>
       </c>
@@ -3845,7 +3838,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>4107207</v>
       </c>
@@ -3856,7 +3849,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>4107256</v>
       </c>
@@ -3867,7 +3860,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>4107306</v>
       </c>
@@ -3878,7 +3871,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>4107405</v>
       </c>
@@ -3889,7 +3882,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>4107504</v>
       </c>
@@ -3900,7 +3893,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>4107520</v>
       </c>
@@ -3911,7 +3904,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>4107538</v>
       </c>
@@ -3922,7 +3915,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>4107546</v>
       </c>
@@ -3933,7 +3926,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>4107553</v>
       </c>
@@ -3944,7 +3937,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>4107603</v>
       </c>
@@ -3955,7 +3948,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>4107652</v>
       </c>
@@ -3966,7 +3959,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>4107702</v>
       </c>
@@ -3977,7 +3970,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>4107736</v>
       </c>
@@ -3988,7 +3981,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>4107751</v>
       </c>
@@ -3999,7 +3992,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>4107801</v>
       </c>
@@ -4010,7 +4003,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>4107850</v>
       </c>
@@ -4021,7 +4014,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>4107900</v>
       </c>
@@ -4032,7 +4025,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>4108007</v>
       </c>
@@ -4043,7 +4036,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>4108106</v>
       </c>
@@ -4054,7 +4047,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>4108205</v>
       </c>
@@ -4065,7 +4058,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>4108304</v>
       </c>
@@ -4076,7 +4069,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>4108320</v>
       </c>
@@ -4087,7 +4080,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>4108403</v>
       </c>
@@ -4098,7 +4091,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>4108452</v>
       </c>
@@ -4109,7 +4102,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>4108502</v>
       </c>
@@ -4120,7 +4113,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>4108551</v>
       </c>
@@ -4131,7 +4124,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>4108601</v>
       </c>
@@ -4142,7 +4135,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>4108650</v>
       </c>
@@ -4153,7 +4146,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>4108700</v>
       </c>
@@ -4164,7 +4157,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>4108809</v>
       </c>
@@ -4175,7 +4168,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>4108908</v>
       </c>
@@ -4186,7 +4179,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>4108957</v>
       </c>
@@ -4197,7 +4190,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>4109005</v>
       </c>
@@ -4208,7 +4201,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>4109104</v>
       </c>
@@ -4219,7 +4212,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>4109203</v>
       </c>
@@ -4230,7 +4223,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>4109302</v>
       </c>
@@ -4241,7 +4234,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>4109401</v>
       </c>
@@ -4252,7 +4245,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>4109500</v>
       </c>
@@ -4263,7 +4256,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>4109609</v>
       </c>
@@ -4274,7 +4267,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>4109658</v>
       </c>
@@ -4285,7 +4278,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>4109708</v>
       </c>
@@ -4296,7 +4289,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>4109757</v>
       </c>
@@ -4307,7 +4300,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>4109807</v>
       </c>
@@ -4318,7 +4311,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>4109906</v>
       </c>
@@ -4329,7 +4322,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>4110003</v>
       </c>
@@ -4340,7 +4333,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>4110052</v>
       </c>
@@ -4351,7 +4344,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>4110078</v>
       </c>
@@ -4362,7 +4355,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>4110102</v>
       </c>
@@ -4373,7 +4366,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>4110201</v>
       </c>
@@ -4384,7 +4377,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>4110300</v>
       </c>
@@ -4395,7 +4388,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>4110409</v>
       </c>
@@ -4406,7 +4399,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>4110508</v>
       </c>
@@ -4417,7 +4410,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>4110607</v>
       </c>
@@ -4428,7 +4421,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>4110656</v>
       </c>
@@ -4439,7 +4432,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>4110706</v>
       </c>
@@ -4450,7 +4443,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>4110805</v>
       </c>
@@ -4461,7 +4454,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>4110904</v>
       </c>
@@ -4472,7 +4465,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>4110953</v>
       </c>
@@ -4483,7 +4476,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>4111001</v>
       </c>
@@ -4494,7 +4487,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>4111100</v>
       </c>
@@ -4505,7 +4498,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>4111209</v>
       </c>
@@ -4516,7 +4509,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>4111258</v>
       </c>
@@ -4527,7 +4520,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>4111308</v>
       </c>
@@ -4538,7 +4531,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>4111407</v>
       </c>
@@ -4549,7 +4542,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>4111506</v>
       </c>
@@ -4560,7 +4553,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>4111555</v>
       </c>
@@ -4571,7 +4564,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>4111605</v>
       </c>
@@ -4582,7 +4575,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>4111704</v>
       </c>
@@ -4593,7 +4586,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>4111803</v>
       </c>
@@ -4604,7 +4597,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>4111902</v>
       </c>
@@ -4615,7 +4608,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>4112009</v>
       </c>
@@ -4626,7 +4619,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>4112108</v>
       </c>
@@ -4637,7 +4630,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>4112207</v>
       </c>
@@ -4648,7 +4641,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>4112306</v>
       </c>
@@ -4659,7 +4652,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>4112405</v>
       </c>
@@ -4670,7 +4663,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>4112504</v>
       </c>
@@ -4681,7 +4674,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>4112603</v>
       </c>
@@ -4692,7 +4685,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>4112702</v>
       </c>
@@ -4703,7 +4696,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>4112751</v>
       </c>
@@ -4714,7 +4707,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>4112801</v>
       </c>
@@ -4725,7 +4718,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>4112900</v>
       </c>
@@ -4736,7 +4729,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>4112959</v>
       </c>
@@ -4747,7 +4740,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>4113007</v>
       </c>
@@ -4758,7 +4751,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>4113106</v>
       </c>
@@ -4769,7 +4762,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>4113205</v>
       </c>
@@ -4780,7 +4773,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>4113254</v>
       </c>
@@ -4791,7 +4784,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>4113304</v>
       </c>
@@ -4802,7 +4795,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>4113403</v>
       </c>
@@ -4813,7 +4806,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>4113429</v>
       </c>
@@ -4824,7 +4817,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>4113452</v>
       </c>
@@ -4835,7 +4828,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>4113502</v>
       </c>
@@ -4846,7 +4839,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>4113601</v>
       </c>
@@ -4857,7 +4850,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>4113700</v>
       </c>
@@ -4868,7 +4861,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>4113734</v>
       </c>
@@ -4879,7 +4872,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>4113759</v>
       </c>
@@ -4890,7 +4883,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>4113809</v>
       </c>
@@ -4901,7 +4894,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>4113908</v>
       </c>
@@ -4912,7 +4905,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>4114005</v>
       </c>
@@ -4923,7 +4916,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>4114104</v>
       </c>
@@ -4934,7 +4927,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>4114203</v>
       </c>
@@ -4945,7 +4938,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>4114302</v>
       </c>
@@ -4956,7 +4949,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>4114351</v>
       </c>
@@ -4967,7 +4960,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>4114401</v>
       </c>
@@ -4978,7 +4971,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>4114500</v>
       </c>
@@ -4989,7 +4982,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>4114609</v>
       </c>
@@ -5000,7 +4993,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>4114708</v>
       </c>
@@ -5011,7 +5004,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>4114807</v>
       </c>
@@ -5022,7 +5015,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>4114906</v>
       </c>
@@ -5033,7 +5026,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>4115002</v>
       </c>
@@ -5044,7 +5037,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>4115101</v>
       </c>
@@ -5055,7 +5048,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>4115200</v>
       </c>
@@ -5066,7 +5059,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>4115309</v>
       </c>
@@ -5077,7 +5070,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>4115358</v>
       </c>
@@ -5088,7 +5081,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>4115408</v>
       </c>
@@ -5099,7 +5092,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>4115457</v>
       </c>
@@ -5110,7 +5103,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>4115507</v>
       </c>
@@ -5121,7 +5114,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>4115606</v>
       </c>
@@ -5132,7 +5125,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>4115705</v>
       </c>
@@ -5143,7 +5136,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>4115739</v>
       </c>
@@ -5154,7 +5147,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>4115754</v>
       </c>
@@ -5165,7 +5158,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>4115804</v>
       </c>
@@ -5176,7 +5169,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>4115853</v>
       </c>
@@ -5187,7 +5180,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>4115903</v>
       </c>
@@ -5198,7 +5191,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>4116000</v>
       </c>
@@ -5209,7 +5202,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>4116059</v>
       </c>
@@ -5220,7 +5213,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>4116109</v>
       </c>
@@ -5231,7 +5224,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>4116208</v>
       </c>
@@ -5242,7 +5235,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>4116307</v>
       </c>
@@ -5253,7 +5246,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>4116406</v>
       </c>
@@ -5264,7 +5257,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>4116505</v>
       </c>
@@ -5275,7 +5268,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>4116604</v>
       </c>
@@ -5286,7 +5279,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>4116703</v>
       </c>
@@ -5297,7 +5290,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>4116802</v>
       </c>
@@ -5308,7 +5301,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>4116901</v>
       </c>
@@ -5319,7 +5312,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>4116950</v>
       </c>
@@ -5330,7 +5323,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>4117008</v>
       </c>
@@ -5341,7 +5334,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>4117057</v>
       </c>
@@ -5352,7 +5345,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>4117107</v>
       </c>
@@ -5363,7 +5356,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>4117206</v>
       </c>
@@ -5374,7 +5367,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>4117214</v>
       </c>
@@ -5385,7 +5378,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>4117222</v>
       </c>
@@ -5396,7 +5389,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>4117255</v>
       </c>
@@ -5407,7 +5400,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>4117271</v>
       </c>
@@ -5418,7 +5411,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>4117297</v>
       </c>
@@ -5429,7 +5422,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>4117305</v>
       </c>
@@ -5440,7 +5433,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>4117404</v>
       </c>
@@ -5451,7 +5444,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>4117453</v>
       </c>
@@ -5462,7 +5455,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>4117503</v>
       </c>
@@ -5473,7 +5466,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>4117602</v>
       </c>
@@ -5484,7 +5477,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>4117701</v>
       </c>
@@ -5495,7 +5488,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>4117800</v>
       </c>
@@ -5506,7 +5499,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>4117909</v>
       </c>
@@ -5517,7 +5510,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>4118006</v>
       </c>
@@ -5528,7 +5521,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>4118105</v>
       </c>
@@ -5539,7 +5532,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>4118204</v>
       </c>
@@ -5550,7 +5543,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>4118303</v>
       </c>
@@ -5561,7 +5554,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>4118402</v>
       </c>
@@ -5572,7 +5565,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>4118451</v>
       </c>
@@ -5583,7 +5576,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>4118501</v>
       </c>
@@ -5594,7 +5587,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>4118600</v>
       </c>
@@ -5605,7 +5598,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>4118709</v>
       </c>
@@ -5616,7 +5609,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>4118808</v>
       </c>
@@ -5627,7 +5620,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>4118857</v>
       </c>
@@ -5638,7 +5631,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>4118907</v>
       </c>
@@ -5649,7 +5642,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>4119004</v>
       </c>
@@ -5660,7 +5653,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>4119103</v>
       </c>
@@ -5671,7 +5664,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>4119152</v>
       </c>
@@ -5682,7 +5675,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>4119202</v>
       </c>
@@ -5693,7 +5686,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>4119251</v>
       </c>
@@ -5704,7 +5697,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>4119301</v>
       </c>
@@ -5715,7 +5708,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>4119400</v>
       </c>
@@ -5726,7 +5719,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>4119509</v>
       </c>
@@ -5737,7 +5730,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>4119608</v>
       </c>
@@ -5748,7 +5741,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>4119657</v>
       </c>
@@ -5759,7 +5752,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>4119707</v>
       </c>
@@ -5770,7 +5763,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>4119806</v>
       </c>
@@ -5781,7 +5774,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>4119905</v>
       </c>
@@ -5792,7 +5785,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>4119954</v>
       </c>
@@ -5803,7 +5796,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>4120002</v>
       </c>
@@ -5814,7 +5807,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>4120101</v>
       </c>
@@ -5825,7 +5818,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>4120150</v>
       </c>
@@ -5836,7 +5829,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>4120200</v>
       </c>
@@ -5847,7 +5840,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>4120309</v>
       </c>
@@ -5858,7 +5851,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>4120333</v>
       </c>
@@ -5869,7 +5862,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>4120358</v>
       </c>
@@ -5880,7 +5873,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>4120408</v>
       </c>
@@ -5891,7 +5884,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>4120507</v>
       </c>
@@ -5902,7 +5895,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>4120606</v>
       </c>
@@ -5913,7 +5906,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>4120655</v>
       </c>
@@ -5924,7 +5917,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>4120705</v>
       </c>
@@ -5935,7 +5928,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>4120804</v>
       </c>
@@ -5946,7 +5939,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>4120853</v>
       </c>
@@ -5957,7 +5950,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>4120903</v>
       </c>
@@ -5968,7 +5961,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>4121000</v>
       </c>
@@ -5979,7 +5972,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>4121109</v>
       </c>
@@ -5990,7 +5983,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>4121208</v>
       </c>
@@ -6001,7 +5994,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>4121257</v>
       </c>
@@ -6012,7 +6005,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>4121307</v>
       </c>
@@ -6023,7 +6016,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>4121356</v>
       </c>
@@ -6034,7 +6027,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>4121406</v>
       </c>
@@ -6045,7 +6038,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>4121505</v>
       </c>
@@ -6056,7 +6049,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>4121604</v>
       </c>
@@ -6067,7 +6060,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>4121703</v>
       </c>
@@ -6078,7 +6071,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>4121752</v>
       </c>
@@ -6089,7 +6082,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>4121802</v>
       </c>
@@ -6100,7 +6093,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>4121901</v>
       </c>
@@ -6111,7 +6104,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>4122008</v>
       </c>
@@ -6122,7 +6115,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>4122107</v>
       </c>
@@ -6133,7 +6126,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>4122156</v>
       </c>
@@ -6144,7 +6137,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>4122172</v>
       </c>
@@ -6155,7 +6148,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>4122206</v>
       </c>
@@ -6166,7 +6159,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>4122305</v>
       </c>
@@ -6177,7 +6170,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>4122404</v>
       </c>
@@ -6188,7 +6181,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>4122503</v>
       </c>
@@ -6199,7 +6192,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>4122602</v>
       </c>
@@ -6210,7 +6203,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>4122651</v>
       </c>
@@ -6221,7 +6214,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>4122701</v>
       </c>
@@ -6232,7 +6225,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>4122800</v>
       </c>
@@ -6243,7 +6236,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>4122909</v>
       </c>
@@ -6254,7 +6247,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>4123006</v>
       </c>
@@ -6265,7 +6258,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>4123105</v>
       </c>
@@ -6276,7 +6269,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>4123204</v>
       </c>
@@ -6287,7 +6280,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>4123303</v>
       </c>
@@ -6298,7 +6291,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>4123402</v>
       </c>
@@ -6309,7 +6302,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>4123501</v>
       </c>
@@ -6320,7 +6313,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>4123600</v>
       </c>
@@ -6331,7 +6324,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>4123709</v>
       </c>
@@ -6342,7 +6335,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>4123808</v>
       </c>
@@ -6353,7 +6346,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>4123824</v>
       </c>
@@ -6364,7 +6357,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>4123857</v>
       </c>
@@ -6375,7 +6368,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>4123907</v>
       </c>
@@ -6386,7 +6379,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>4123956</v>
       </c>
@@ -6397,7 +6390,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>4124004</v>
       </c>
@@ -6408,7 +6401,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>4124020</v>
       </c>
@@ -6419,7 +6412,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>4124053</v>
       </c>
@@ -6430,7 +6423,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>4124103</v>
       </c>
@@ -6441,7 +6434,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>4124202</v>
       </c>
@@ -6452,7 +6445,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>4124301</v>
       </c>
@@ -6463,7 +6456,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>4124400</v>
       </c>
@@ -6474,7 +6467,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>4124509</v>
       </c>
@@ -6485,7 +6478,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>4124608</v>
       </c>
@@ -6496,7 +6489,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>4124707</v>
       </c>
@@ -6507,7 +6500,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>4124806</v>
       </c>
@@ -6518,7 +6511,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>4124905</v>
       </c>
@@ -6529,7 +6522,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>4125001</v>
       </c>
@@ -6540,7 +6533,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>4125100</v>
       </c>
@@ -6551,7 +6544,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>4125209</v>
       </c>
@@ -6562,7 +6555,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>4125308</v>
       </c>
@@ -6573,7 +6566,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>4125357</v>
       </c>
@@ -6584,7 +6577,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>4125407</v>
       </c>
@@ -6595,7 +6588,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>4125456</v>
       </c>
@@ -6606,7 +6599,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>4125506</v>
       </c>
@@ -6617,7 +6610,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>4125555</v>
       </c>
@@ -6628,7 +6621,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>4125605</v>
       </c>
@@ -6639,7 +6632,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>4125704</v>
       </c>
@@ -6650,7 +6643,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>4125753</v>
       </c>
@@ -6661,7 +6654,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>4125803</v>
       </c>
@@ -6672,7 +6665,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>4125902</v>
       </c>
@@ -6683,7 +6676,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>4126009</v>
       </c>
@@ -6694,7 +6687,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>4126108</v>
       </c>
@@ -6705,7 +6698,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>4126207</v>
       </c>
@@ -6716,7 +6709,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>4126256</v>
       </c>
@@ -6727,7 +6720,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>4126272</v>
       </c>
@@ -6738,7 +6731,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>4126306</v>
       </c>
@@ -6749,7 +6742,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>4126355</v>
       </c>
@@ -6760,7 +6753,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>4126405</v>
       </c>
@@ -6771,7 +6764,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>4126504</v>
       </c>
@@ -6782,7 +6775,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>4126603</v>
       </c>
@@ -6793,7 +6786,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>4126652</v>
       </c>
@@ -6804,7 +6797,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>4126678</v>
       </c>
@@ -6815,7 +6808,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>4126702</v>
       </c>
@@ -6826,7 +6819,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>4126801</v>
       </c>
@@ -6837,7 +6830,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>4126900</v>
       </c>
@@ -6848,7 +6841,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>4127007</v>
       </c>
@@ -6859,7 +6852,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>4127106</v>
       </c>
@@ -6870,7 +6863,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>4127205</v>
       </c>
@@ -6881,7 +6874,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>4127304</v>
       </c>
@@ -6892,7 +6885,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>4127403</v>
       </c>
@@ -6903,7 +6896,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>4127502</v>
       </c>
@@ -6914,7 +6907,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>4127601</v>
       </c>
@@ -6925,7 +6918,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>4127700</v>
       </c>
@@ -6936,7 +6929,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>4127809</v>
       </c>
@@ -6947,7 +6940,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>4127858</v>
       </c>
@@ -6958,7 +6951,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>4127882</v>
       </c>
@@ -6969,7 +6962,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>4127908</v>
       </c>
@@ -6980,7 +6973,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>4127957</v>
       </c>
@@ -6991,7 +6984,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>4127965</v>
       </c>
@@ -7002,7 +6995,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>4128005</v>
       </c>
@@ -7013,7 +7006,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>4128104</v>
       </c>
@@ -7024,7 +7017,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>4128203</v>
       </c>
@@ -7035,7 +7028,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>4128302</v>
       </c>
@@ -7046,7 +7039,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>4128401</v>
       </c>
@@ -7057,7 +7050,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>4128500</v>
       </c>
@@ -7068,7 +7061,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>4128534</v>
       </c>
@@ -7079,7 +7072,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>4128559</v>
       </c>
@@ -7090,7 +7083,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>4128609</v>
       </c>
@@ -7101,7 +7094,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>4128625</v>
       </c>
@@ -7112,7 +7105,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>4128633</v>
       </c>
@@ -7123,7 +7116,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>4128658</v>
       </c>
@@ -7134,7 +7127,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>4128708</v>
       </c>
@@ -7145,7 +7138,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>4128807</v>
       </c>
@@ -7155,9 +7148,6 @@
       <c r="C400" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="405" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B405" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
